--- a/data/words/v1/形容词词库.xlsx
+++ b/data/words/v1/形容词词库.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33FEBB-8388-734E-B079-DC97CD275482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2E333-10B6-EF42-B104-9DD49099B910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -7096,32 +7094,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/data/words/v1/形容词词库.xlsx
+++ b/data/words/v1/形容词词库.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2E333-10B6-EF42-B104-9DD49099B910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EFC2CE-81AF-7E47-9165-53C2799B918E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="形容词" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
